--- a/storage/exports/123.xlsx
+++ b/storage/exports/123.xlsx
@@ -4,56 +4,58 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="18" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="6.3" sheetId="1" r:id="rId1"/>
-    <sheet name="6.4" sheetId="2" r:id="rId2"/>
-    <sheet name="6.5" sheetId="3" r:id="rId3"/>
-    <sheet name="6.6" sheetId="4" r:id="rId4"/>
-    <sheet name="6.7" sheetId="5" r:id="rId5"/>
-    <sheet name="6.8" sheetId="6" r:id="rId6"/>
-    <sheet name="6.9" sheetId="7" r:id="rId7"/>
-    <sheet name="6.10" sheetId="9" r:id="rId8"/>
-    <sheet name="6.11" sheetId="10" r:id="rId9"/>
-    <sheet name="6.12" sheetId="11" r:id="rId10"/>
-    <sheet name="6.13" sheetId="12" r:id="rId11"/>
-    <sheet name="6.14" sheetId="14" r:id="rId12"/>
-    <sheet name="6.15" sheetId="15" r:id="rId13"/>
-    <sheet name="6.16" sheetId="16" r:id="rId14"/>
-    <sheet name="6.17" sheetId="17" r:id="rId15"/>
-    <sheet name="6.18" sheetId="18" r:id="rId16"/>
-    <sheet name="6.19" sheetId="19" r:id="rId17"/>
-    <sheet name="6.20" sheetId="20" r:id="rId18"/>
-    <sheet name="6.21" sheetId="21" r:id="rId19"/>
-    <sheet name="6.22" sheetId="22" r:id="rId20"/>
-    <sheet name="6.23" sheetId="23" r:id="rId21"/>
-    <sheet name="6.24" sheetId="24" r:id="rId22"/>
-    <sheet name="6.25" sheetId="25" r:id="rId23"/>
-    <sheet name="6.26" sheetId="26" r:id="rId24"/>
-    <sheet name="6.27" sheetId="27" r:id="rId25"/>
-    <sheet name="6.28" sheetId="28" r:id="rId26"/>
-    <sheet name="6.29" sheetId="29" r:id="rId27"/>
-    <sheet name="6.30" sheetId="30" r:id="rId28"/>
-    <sheet name="6.31" sheetId="31" r:id="rId29"/>
-    <sheet name="6.32" sheetId="32" r:id="rId30"/>
-    <sheet name="6.33" sheetId="33" r:id="rId31"/>
-    <sheet name="6.34" sheetId="34" r:id="rId32"/>
-    <sheet name="6.35" sheetId="35" r:id="rId33"/>
-    <sheet name="6.36" sheetId="36" r:id="rId34"/>
-    <sheet name="6.37" sheetId="37" r:id="rId35"/>
-    <sheet name="6.38" sheetId="38" r:id="rId36"/>
-    <sheet name="6.39" sheetId="13" r:id="rId37"/>
+    <sheet name="6.1" sheetId="39" r:id="rId1"/>
+    <sheet name="6.2" sheetId="40" r:id="rId2"/>
+    <sheet name="6.3" sheetId="1" r:id="rId3"/>
+    <sheet name="6.4" sheetId="2" r:id="rId4"/>
+    <sheet name="6.5" sheetId="3" r:id="rId5"/>
+    <sheet name="6.6" sheetId="4" r:id="rId6"/>
+    <sheet name="6.7" sheetId="5" r:id="rId7"/>
+    <sheet name="6.8" sheetId="6" r:id="rId8"/>
+    <sheet name="6.9" sheetId="7" r:id="rId9"/>
+    <sheet name="6.10" sheetId="9" r:id="rId10"/>
+    <sheet name="6.11" sheetId="10" r:id="rId11"/>
+    <sheet name="6.12" sheetId="11" r:id="rId12"/>
+    <sheet name="6.13" sheetId="12" r:id="rId13"/>
+    <sheet name="6.14" sheetId="14" r:id="rId14"/>
+    <sheet name="6.15" sheetId="15" r:id="rId15"/>
+    <sheet name="6.16" sheetId="16" r:id="rId16"/>
+    <sheet name="6.17" sheetId="17" r:id="rId17"/>
+    <sheet name="6.18" sheetId="18" r:id="rId18"/>
+    <sheet name="6.19" sheetId="19" r:id="rId19"/>
+    <sheet name="6.20" sheetId="20" r:id="rId20"/>
+    <sheet name="6.21" sheetId="21" r:id="rId21"/>
+    <sheet name="6.22" sheetId="22" r:id="rId22"/>
+    <sheet name="6.23" sheetId="23" r:id="rId23"/>
+    <sheet name="6.24" sheetId="24" r:id="rId24"/>
+    <sheet name="6.25" sheetId="25" r:id="rId25"/>
+    <sheet name="6.26" sheetId="26" r:id="rId26"/>
+    <sheet name="6.27" sheetId="27" r:id="rId27"/>
+    <sheet name="6.28" sheetId="28" r:id="rId28"/>
+    <sheet name="6.29" sheetId="29" r:id="rId29"/>
+    <sheet name="6.30" sheetId="30" r:id="rId30"/>
+    <sheet name="6.31" sheetId="31" r:id="rId31"/>
+    <sheet name="6.32" sheetId="32" r:id="rId32"/>
+    <sheet name="6.33" sheetId="33" r:id="rId33"/>
+    <sheet name="6.34" sheetId="34" r:id="rId34"/>
+    <sheet name="6.35" sheetId="35" r:id="rId35"/>
+    <sheet name="6.36" sheetId="36" r:id="rId36"/>
+    <sheet name="6.37" sheetId="37" r:id="rId37"/>
+    <sheet name="6.38" sheetId="38" r:id="rId38"/>
+    <sheet name="6.39" sheetId="13" r:id="rId39"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc448761041" localSheetId="24">'6.27'!$A$2</definedName>
+    <definedName name="_Toc448761041" localSheetId="26">'6.27'!$A$2</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2222" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="420">
   <si>
     <t>否</t>
   </si>
@@ -2216,6 +2218,105 @@
   </si>
   <si>
     <t>OGW0014T</t>
+  </si>
+  <si>
+    <t>OGW00041</t>
+  </si>
+  <si>
+    <t>TRSTYPE</t>
+  </si>
+  <si>
+    <t>操作类型</t>
+  </si>
+  <si>
+    <t>MOBILE_NO</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>N(18)</t>
+  </si>
+  <si>
+    <t>注册的时候必填，11位手机号</t>
+  </si>
+  <si>
+    <t>1：自动投标撤销 2：自动还款授权撤销 0：默认</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E账户账号，即关联账号. P2p商户必填</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 获取短信验证码(OGW00041)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方公司发起向客户注册手机发送手机短信验证码。
+一个手机号，一分钟之内只能发送一次获取短信验证码。
+暂用于自动投标授权撤销、自动还款授权撤销两接口的发请求前的发送短信验证码。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 账户开立(OGW00042) （必选，跳转我行页面处理）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>由第三方公司发起，跳转到银行官网完成进行该操作。交易提交我行10分钟后，可通过该接口查询银行处理结果。客户在页面流程操作共不可超过20分钟，否则请求超时。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:账户开立</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>IDTYPE</t>
+  </si>
+  <si>
+    <t>证件类型</t>
+  </si>
+  <si>
+    <t>1010：居民身份证</t>
+  </si>
+  <si>
+    <t>IDNO</t>
+  </si>
+  <si>
+    <t>证件号码</t>
+  </si>
+  <si>
+    <t>只支持身份证</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>11位手机号</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>用户邮箱</t>
+  </si>
+  <si>
+    <t>C(50)</t>
+  </si>
+  <si>
+    <t>CUSTMNGRNO</t>
+  </si>
+  <si>
+    <t>客户经理编号</t>
+  </si>
+  <si>
+    <t>PC端:OGW00042 移动端：OGW00090</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2428,7 +2529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2526,6 +2627,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2580,8 +2690,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2887,11 +2997,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2918,64 +3026,64 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="A3" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
+      <c r="D4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2991,82 +3099,116 @@
       <c r="D7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
+      <c r="A9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>395</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
+      <c r="E10" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A5:E5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3076,6 +3218,914 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="19"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -3110,22 +4160,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
@@ -3145,13 +4195,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -3375,7 +4425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -3408,22 +4458,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -3443,13 +4493,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -3562,7 +4612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -3597,22 +4647,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -3632,13 +4682,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -3929,7 +4979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -3962,22 +5012,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -3997,13 +5047,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -4131,7 +5181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -4164,22 +5214,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
@@ -4199,13 +5249,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -4397,7 +5447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -4430,22 +5480,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -4465,13 +5515,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -4584,7 +5634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -4617,22 +5667,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -4652,13 +5702,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -4831,7 +5881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -4864,22 +5914,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -4906,13 +5956,13 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -5087,7 +6137,323 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="53.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -5120,22 +6486,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -5162,13 +6528,13 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -5343,14 +6709,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5379,22 +6745,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -5414,13 +6780,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -5482,231 +6848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="60.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -5739,22 +6881,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
@@ -5774,13 +6916,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -6039,7 +7181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -6072,22 +7214,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -6107,13 +7249,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -6226,7 +7368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6259,22 +7401,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -6294,13 +7436,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -6430,7 +7572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -6466,22 +7608,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -6501,13 +7643,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -6569,7 +7711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -6602,22 +7744,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -6637,13 +7779,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -6771,7 +7913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -6804,22 +7946,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -6839,13 +7981,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -7054,7 +8196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -7087,22 +8229,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -7122,13 +8264,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -7271,7 +8413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -7304,22 +8446,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
@@ -7339,13 +8481,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -7549,7 +8691,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="35" t="s">
         <v>314</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -7627,7 +8769,195 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="44.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -7660,22 +8990,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -7695,13 +9025,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -7814,7 +9144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -7847,22 +9177,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
@@ -7882,13 +9212,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -8095,7 +9425,2319 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="112.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="31" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="6.75" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="60.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -8130,22 +11772,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
@@ -8165,13 +11807,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -8380,2095 +12022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="112.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="31" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="31" t="s">
-        <v>363</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
-        <v>368</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>369</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -10503,22 +12057,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -10538,13 +12092,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -10659,7 +12213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
@@ -10692,22 +12246,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -10727,13 +12281,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -10943,7 +12497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -10976,22 +12530,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -11011,13 +12565,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -11147,7 +12701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -11180,20 +12734,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -11213,13 +12767,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -11362,912 +12916,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A5:E5"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:5" ht="83.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="40" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="19"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="19"/>
-    </row>
-    <row r="42" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:E5"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>